--- a/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606</v>
+        <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>4.919053549190536</v>
+        <v>3.760356915232632</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>13.30275229357798</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H2" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9900990099009901</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9174311926605505</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="N2" t="n">
-        <v>98.05978722108235</v>
+        <v>98.24113410569613</v>
       </c>
       <c r="O2" t="n">
-        <v>77.28935845293663</v>
+        <v>88.78048584677678</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>7.150837988826815</v>
+        <v>6.464530892448512</v>
       </c>
       <c r="D3" t="n">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E3" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>30.82077051926298</v>
+        <v>26.10169491525424</v>
       </c>
       <c r="G3" t="n">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H3" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I3" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="J3" t="n">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9976744186046511</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7185929648241206</v>
+        <v>0.7576271186440678</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8354430379746836</v>
+        <v>0.8621022179363549</v>
       </c>
       <c r="N3" t="n">
-        <v>93.51983084844338</v>
+        <v>93.4433833255012</v>
       </c>
       <c r="O3" t="n">
-        <v>44.59805332885193</v>
+        <v>50.92770863416896</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1363</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>4.328686720469553</v>
+        <v>3.606311044327573</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>13.1578947368421</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9318801089918256</v>
+        <v>0.9392265193370166</v>
       </c>
       <c r="N4" t="n">
-        <v>96.57842506533673</v>
+        <v>96.83942199414052</v>
       </c>
       <c r="O4" t="n">
-        <v>81.24567788258594</v>
+        <v>84.14910565336442</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3133</v>
+        <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>5.745292052345994</v>
+        <v>5.220228384991843</v>
       </c>
       <c r="D5" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E5" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" t="n">
-        <v>26.94063926940639</v>
+        <v>24.54128440366972</v>
       </c>
       <c r="G5" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H5" t="n">
         <v>434</v>
       </c>
       <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
         <v>85</v>
       </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.9970501474926253</v>
+        <v>0.9971590909090909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.771689497716895</v>
+        <v>0.805045871559633</v>
       </c>
       <c r="M5" t="n">
-        <v>0.87001287001287</v>
+        <v>0.8908629441624365</v>
       </c>
       <c r="N5" t="n">
-        <v>90.03273868113841</v>
+        <v>89.97559639617876</v>
       </c>
       <c r="O5" t="n">
-        <v>48.14583026829978</v>
+        <v>52.07511931996363</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.03421562298257</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
-        <v>15.19607843137255</v>
+        <v>6.565656565656567</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H6" t="n">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9842105263157894</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="M6" t="n">
-        <v>0.949238578680203</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="N6" t="n">
-        <v>97.98194127559401</v>
+        <v>97.47183845700027</v>
       </c>
       <c r="O6" t="n">
-        <v>73.62365702399673</v>
+        <v>86.65235347880007</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2129</v>
+        <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>20.76092062000939</v>
+        <v>19.65432098765432</v>
       </c>
       <c r="D7" t="n">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="E7" t="n">
         <v>268</v>
       </c>
       <c r="F7" t="n">
-        <v>27.61194029850746</v>
+        <v>23.50746268656717</v>
       </c>
       <c r="G7" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H7" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9838056680161943</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9067164179104478</v>
+        <v>0.9589552238805971</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9436893203883495</v>
+        <v>0.9790476190476191</v>
       </c>
       <c r="N7" t="n">
-        <v>82.6379760806358</v>
+        <v>89.33656522081105</v>
       </c>
       <c r="O7" t="n">
-        <v>78.39293695856129</v>
+        <v>84.97774032308166</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>2.665245202558635</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>8.297872340425531</v>
+        <v>4.535637149028078</v>
       </c>
       <c r="G8" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H8" t="n">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9425531914893617</v>
+        <v>0.9762419006479481</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9704271631982475</v>
+        <v>0.9879781420765027</v>
       </c>
       <c r="N8" t="n">
-        <v>99.76097867127804</v>
+        <v>99.76066421415084</v>
       </c>
       <c r="O8" t="n">
-        <v>82.90135542361649</v>
+        <v>90.45416998621329</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>2.149532710280374</v>
+        <v>1.705352913311227</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>6.927710843373494</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="G9" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H9" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9847560975609756</v>
+        <v>0.9909365558912386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9728915662650602</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9787878787878788</v>
+        <v>0.9924357034795764</v>
       </c>
       <c r="N9" t="n">
-        <v>99.6538672948237</v>
+        <v>99.58653450817198</v>
       </c>
       <c r="O9" t="n">
-        <v>86.63722322664735</v>
+        <v>92.45597050322363</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>3.760356915232632</v>
+        <v>1563</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.083492670490758</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.481481481481481</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>207</v>
       </c>
-      <c r="H2" t="n">
-        <v>214</v>
-      </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9259259259259258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>95.83333333333334</v>
+      </c>
+      <c r="P2" t="n">
+        <v>98.61111111111111</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9787234042553191</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>98.24113410569613</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>88.78048584677678</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>6.464530892448512</v>
+        <v>3376</v>
       </c>
       <c r="D3" t="n">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
+        <v>114</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.693363844393593</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>26.10169491525424</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>445</v>
       </c>
-      <c r="H3" t="n">
-        <v>586</v>
-      </c>
       <c r="I3" t="n">
-        <v>69</v>
+        <v>503</v>
       </c>
       <c r="J3" t="n">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
+        <v>81</v>
+      </c>
+      <c r="L3" t="n">
+        <v>23.89830508474576</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.06779661016949</v>
+      </c>
+      <c r="N3" t="n">
+        <v>58</v>
+      </c>
+      <c r="O3" t="n">
+        <v>75.42372881355932</v>
+      </c>
+      <c r="P3" t="n">
+        <v>85.2542372881356</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.7576271186440678</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.8621022179363549</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>93.4433833255012</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>50.92770863416896</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>3.606311044327573</v>
+        <v>1325</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.728024042073629</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>10.8695652173913</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>177</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>181</v>
       </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.782608695652174</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.608695652173914</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>96.19565217391305</v>
+      </c>
+      <c r="P4" t="n">
+        <v>98.36956521739131</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9550561797752809</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.9239130434782609</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.9392265193370166</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>96.83942199414052</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>84.14910565336442</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>5.220228384991843</v>
+        <v>2996</v>
       </c>
       <c r="D5" t="n">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.089722675367047</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>24.54128440366972</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>342</v>
       </c>
-      <c r="H5" t="n">
-        <v>434</v>
-      </c>
       <c r="I5" t="n">
-        <v>68</v>
+        <v>398</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
+        <v>29</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.10091743119266</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.256880733944955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>56</v>
+      </c>
+      <c r="O5" t="n">
+        <v>78.44036697247707</v>
+      </c>
+      <c r="P5" t="n">
+        <v>91.28440366972477</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9971590909090909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.805045871559633</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.8908629441624365</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>89.97559639617876</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>52.07511931996363</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>2.205882352941177</v>
+        <v>1483</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.072192513368984</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>6.565656565656567</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>187</v>
       </c>
-      <c r="H6" t="n">
-        <v>193</v>
-      </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.060606060606061</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="P6" t="n">
+        <v>94.94949494949495</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9948453608247423</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.9747474747474747</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9846938775510204</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>97.47183845700027</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>86.65235347880007</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>19.65432098765432</v>
+        <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.876543209876543</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
-        <v>23.50746268656717</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>257</v>
       </c>
-      <c r="H7" t="n">
-        <v>267</v>
-      </c>
       <c r="I7" t="n">
+        <v>268</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.104477611940299</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>11</v>
       </c>
-      <c r="J7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>95.8955223880597</v>
+      </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.9589552238805971</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9790476190476191</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>89.33656522081105</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>84.97774032308166</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.96078431372549</v>
+        <v>2739</v>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8714596949891068</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.535637149028078</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>448</v>
       </c>
-      <c r="H8" t="n">
-        <v>459</v>
-      </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>449</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.159827213822894</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.943844492440605</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>96.76025917926566</v>
+      </c>
+      <c r="P8" t="n">
+        <v>96.97624190064795</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.9762419006479481</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.9879781420765027</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>99.76066421415084</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>90.45416998621329</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.705352913311227</v>
+        <v>2109</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.994789199431549</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.636363636363636</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>324</v>
       </c>
-      <c r="H9" t="n">
-        <v>328</v>
-      </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="P9" t="n">
+        <v>98.7878787878788</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9909365558912386</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9939393939393939</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9924357034795764</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.58653450817198</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>92.45597050322363</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
@@ -550,16 +550,16 @@
         <v>1569</v>
       </c>
       <c r="B2" t="n">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0108</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -620,64 +620,64 @@
         <v>3496</v>
       </c>
       <c r="B3" t="n">
-        <v>3376</v>
+        <v>3393</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0669</v>
+        <v>0.0572</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
       </c>
       <c r="G3" t="n">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="H3" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I3" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3559</v>
+        <v>0.3136</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1593</v>
+        <v>0.1508</v>
       </c>
       <c r="N3" t="n">
-        <v>0.787</v>
+        <v>0.8027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8626</v>
+        <v>0.8689</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8831</v>
+        <v>0.9102</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9792999999999999</v>
+        <v>0.9853</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8323</v>
+        <v>0.8531</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9173</v>
+        <v>0.9235</v>
       </c>
       <c r="T3" t="n">
         <v>0.9344</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5093</v>
+        <v>0.5299</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,16 +690,16 @@
         <v>1331</v>
       </c>
       <c r="B4" t="n">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0173</v>
+        <v>0.0158</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -760,64 +760,64 @@
         <v>3065</v>
       </c>
       <c r="B5" t="n">
-        <v>2996</v>
+        <v>3015</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0509</v>
+        <v>0.0385</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
       </c>
       <c r="G5" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3509</v>
+        <v>0.3119</v>
       </c>
       <c r="M5" t="n">
-        <v>0.094</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8124</v>
+        <v>0.8333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.927</v>
+        <v>0.947</v>
       </c>
       <c r="P5" t="n">
-        <v>0.844</v>
+        <v>0.8601</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9684</v>
+        <v>0.9715</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8279</v>
+        <v>0.8465</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="T5" t="n">
         <v>0.8998</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5208</v>
+        <v>0.5468</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -860,28 +860,28 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0556</v>
+        <v>0.0404</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9744</v>
+        <v>0.9845</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9794</v>
+        <v>0.9896</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9596</v>
+        <v>0.9646</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9645</v>
+        <v>0.9695</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9669</v>
+        <v>0.9745</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9719</v>
+        <v>0.9795</v>
       </c>
       <c r="T6" t="n">
         <v>0.9747</v>
@@ -970,28 +970,28 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0065</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1000,34 +1000,34 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0238</v>
+        <v>0.0173</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0194</v>
+        <v>0.013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.985</v>
+        <v>0.9892</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9871</v>
+        <v>0.9913999999999999</v>
       </c>
       <c r="P8" t="n">
+        <v>0.9935</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9957</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.9913999999999999</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.9935</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.9882</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.9903</v>
       </c>
       <c r="T8" t="n">
         <v>0.9976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9045</v>
+        <v>0.9267</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Docling/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3393</v>
+        <v>3373</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0572</v>
+        <v>0.0555</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0158</v>
+        <v>0.0136</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0385</v>
+        <v>0.0376</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0207</v>
+        <v>0.0115</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0188</v>
+        <v>0.0054</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2742</v>
+        <v>2724</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0065</v>
+        <v>0.0062</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2109</v>
+        <v>2096</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
